--- a/trend_results/Lakes/LakeKohata_ce1e57260f.xlsx
+++ b/trend_results/Lakes/LakeKohata_ce1e57260f.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
   <si>
     <t>site name</t>
   </si>
@@ -112,31 +112,31 @@
     <t>ok</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>Lake</t>
   </si>
   <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Extremely likely improving</t>
+    <t>Unlikely increasing</t>
   </si>
   <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
+    <t>Very likely improving</t>
   </si>
   <si>
     <t>Whanganui District</t>
@@ -518,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,31 +612,31 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>0.998838443159659</v>
+        <v>0.995710099373594</v>
       </c>
       <c r="G2">
-        <v>0.0357142857142857</v>
+        <v>0.08823529411764711</v>
       </c>
       <c r="H2">
-        <v>0.821428571428571</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>7.7</v>
+        <v>5.6</v>
       </c>
       <c r="K2">
-        <v>-3.64639318488401</v>
+        <v>-2.35736780715397</v>
       </c>
       <c r="L2">
-        <v>-5.34443429144258</v>
+        <v>-3.45189300827856</v>
       </c>
       <c r="M2">
-        <v>-1.66825554938934</v>
+        <v>-1.13614094586068</v>
       </c>
       <c r="N2">
-        <v>-47.3557556478443</v>
+        <v>-42.095853699178</v>
       </c>
       <c r="O2" t="s">
         <v>34</v>
@@ -680,34 +680,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>0.380754301082414</v>
+        <v>0.172416849025545</v>
       </c>
       <c r="G3">
-        <v>0.0357142857142857</v>
+        <v>0.08823529411764711</v>
       </c>
       <c r="H3">
-        <v>0.357142857142857</v>
+        <v>0.382352941176471</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.18780487804878</v>
       </c>
       <c r="L3">
-        <v>-0.913894277508845</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.28374826546627</v>
+        <v>3.98811765376181</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>11.8780487804878</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -754,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>0.956505925540832</v>
+        <v>0.6621540677478021</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -766,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0146210087674567</v>
+        <v>0.0154867607023909</v>
       </c>
       <c r="K4">
-        <v>-0.0070761949626468</v>
+        <v>-0.0007295383199278</v>
       </c>
       <c r="L4">
-        <v>-0.0124089923004768</v>
+        <v>-0.0055014538346518</v>
       </c>
       <c r="M4">
-        <v>-0.0002878760134963</v>
+        <v>0.0031793928038533</v>
       </c>
       <c r="N4">
-        <v>-48.3974469558968</v>
+        <v>-4.71072249353743</v>
       </c>
       <c r="O4" t="s">
         <v>34</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>0.836473711740312</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.75</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="H5">
-        <v>0.285714285714286</v>
+        <v>0.323529411764706</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -855,7 +855,7 @@
         <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q5">
         <v>1777675.54138</v>
@@ -896,37 +896,37 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>0.0013358671138119</v>
+        <v>0.104621360712787</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.916666666666667</v>
+        <v>0.878787878787879</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="K6">
-        <v>-0.398485445322075</v>
+        <v>-0.13302738476843</v>
       </c>
       <c r="L6">
-        <v>-0.541426295377761</v>
+        <v>-0.349195006218244</v>
       </c>
       <c r="M6">
-        <v>-0.210681449693393</v>
+        <v>0.0339496900367833</v>
       </c>
       <c r="N6">
-        <v>-4.98730219426877</v>
+        <v>-1.66700983419086</v>
       </c>
       <c r="O6" t="s">
         <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q6">
         <v>1777675.54138</v>
@@ -964,37 +964,37 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>0.609112268656226</v>
+        <v>0.876673077589228</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.785714285714286</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.865</v>
+        <v>0.835</v>
       </c>
       <c r="K7">
-        <v>-0.0071956173171129</v>
+        <v>-0.0224079754601227</v>
       </c>
       <c r="L7">
-        <v>-0.0591525058846223</v>
+        <v>-0.0566279069767442</v>
       </c>
       <c r="M7">
-        <v>0.0293291690203647</v>
+        <v>0.0050648994905709</v>
       </c>
       <c r="N7">
-        <v>-0.8318632736546731</v>
+        <v>-2.6835898754638</v>
       </c>
       <c r="O7" t="s">
         <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q7">
         <v>1777675.54138</v>
@@ -1035,13 +1035,13 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>0.296532298401414</v>
+        <v>0.202721952208425</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.785714285714286</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>0.032</v>
       </c>
       <c r="K8">
-        <v>0.0009846801970701</v>
+        <v>0.0009845013477087999</v>
       </c>
       <c r="L8">
-        <v>-0.001902231156255</v>
+        <v>-0.0011031446437678</v>
       </c>
       <c r="M8">
-        <v>0.0030300603262413</v>
+        <v>0.0024978507420257</v>
       </c>
       <c r="N8">
-        <v>3.07712561584409</v>
+        <v>3.0765667115903</v>
       </c>
       <c r="O8" t="s">
         <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q8">
         <v>1777675.54138</v>
@@ -1086,6 +1086,290 @@
         <v>44</v>
       </c>
       <c r="W8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>0.999958211442229</v>
+      </c>
+      <c r="G9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>7.7</v>
+      </c>
+      <c r="K9">
+        <v>-1.82472691844362</v>
+      </c>
+      <c r="L9">
+        <v>-2.9012961569852</v>
+      </c>
+      <c r="M9">
+        <v>-1.13894578509611</v>
+      </c>
+      <c r="N9">
+        <v>-23.6977521875795</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9">
+        <v>1777675.54138</v>
+      </c>
+      <c r="R9">
+        <v>5573253.04125</v>
+      </c>
+      <c r="S9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>0.130045396819315</v>
+      </c>
+      <c r="G10">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.355555555555556</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>0.324966383586285</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.71480768795139</v>
+      </c>
+      <c r="N10">
+        <v>2.70805319655238</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10">
+        <v>1777675.54138</v>
+      </c>
+      <c r="R10">
+        <v>5573253.04125</v>
+      </c>
+      <c r="S10" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>0.999471660362405</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.87</v>
+      </c>
+      <c r="K11">
+        <v>-0.0298335736574449</v>
+      </c>
+      <c r="L11">
+        <v>-0.0477121900384304</v>
+      </c>
+      <c r="M11">
+        <v>-0.0128234123197242</v>
+      </c>
+      <c r="N11">
+        <v>-3.42914639740746</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11">
+        <v>1777675.54138</v>
+      </c>
+      <c r="R11">
+        <v>5573253.04125</v>
+      </c>
+      <c r="S11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>0.943418770523598</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.033</v>
+      </c>
+      <c r="K12">
+        <v>-0.0009886317680060999</v>
+      </c>
+      <c r="L12">
+        <v>-0.0022922980427793</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>-2.99585384244301</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12">
+        <v>1777675.54138</v>
+      </c>
+      <c r="R12">
+        <v>5573253.04125</v>
+      </c>
+      <c r="S12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12" t="s">
         <v>48</v>
       </c>
     </row>

--- a/trend_results/Lakes/LakeKohata_ce1e57260f.xlsx
+++ b/trend_results/Lakes/LakeKohata_ce1e57260f.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
   <si>
     <t>site name</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Lake Kohata</t>
   </si>
   <si>
+    <t>Cyanobacteria Biovolume</t>
+  </si>
+  <si>
     <t>Chlorophyll A</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>Lake</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
@@ -133,9 +139,6 @@
     <t>Unlikely increasing</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
     <t>Very likely improving</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
   </si>
   <si>
     <t>West_4</t>
+  </si>
+  <si>
+    <t>mg chl-a /m3</t>
   </si>
   <si>
     <t>mg/m2</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,40 +615,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>0.995710099373594</v>
+        <v>0.828629767142353</v>
       </c>
       <c r="G2">
-        <v>0.08823529411764711</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.676470588235294</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.6</v>
+        <v>0.0335</v>
       </c>
       <c r="K2">
-        <v>-2.35736780715397</v>
+        <v>-0.008824832214765099</v>
       </c>
       <c r="L2">
-        <v>-3.45189300827856</v>
+        <v>-0.0235020840517646</v>
       </c>
       <c r="M2">
-        <v>-1.13614094586068</v>
+        <v>0.0050844396713501</v>
       </c>
       <c r="N2">
-        <v>-42.095853699178</v>
+        <v>-26.3427827306421</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q2">
         <v>1777675.54138</v>
@@ -651,19 +657,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -680,40 +686,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>0.172416849025545</v>
+        <v>0.995710099373594</v>
       </c>
       <c r="G3">
         <v>0.08823529411764711</v>
       </c>
       <c r="H3">
-        <v>0.382352941176471</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>5.6</v>
       </c>
       <c r="K3">
-        <v>1.18780487804878</v>
+        <v>-2.35736780715397</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-3.45189300827856</v>
       </c>
       <c r="M3">
-        <v>3.98811765376181</v>
+        <v>-1.13614094586068</v>
       </c>
       <c r="N3">
-        <v>11.8780487804878</v>
+        <v>-42.095853699178</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3">
         <v>1777675.54138</v>
@@ -722,19 +728,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -751,40 +757,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>0.6621540677478021</v>
+        <v>0.172416849025545</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.08823529411764711</v>
       </c>
       <c r="H4">
+        <v>0.382352941176471</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
-        <v>0.0154867607023909</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>-0.0007295383199278</v>
+        <v>1.18780487804878</v>
       </c>
       <c r="L4">
-        <v>-0.0055014538346518</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0031793928038533</v>
+        <v>3.98811765376181</v>
       </c>
       <c r="N4">
-        <v>-4.71072249353743</v>
+        <v>11.8780487804878</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4">
         <v>1777675.54138</v>
@@ -793,19 +799,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -825,37 +831,37 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.6621540677478021</v>
       </c>
       <c r="G5">
-        <v>0.676470588235294</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.323529411764706</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0025</v>
+        <v>0.0154867607023909</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0.0007295383199278</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-0.0055014538346518</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0031793928038533</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-4.71072249353743</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q5">
         <v>1777675.54138</v>
@@ -864,19 +870,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -893,40 +899,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>0.104621360712787</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="H6">
-        <v>0.878787878787879</v>
+        <v>0.323529411764706</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>7.98</v>
+        <v>0.0025</v>
       </c>
       <c r="K6">
-        <v>-0.13302738476843</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.349195006218244</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0339496900367833</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-1.66700983419086</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q6">
         <v>1777675.54138</v>
@@ -935,16 +941,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="S6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V6" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="W6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -961,40 +970,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>0.876673077589228</v>
+        <v>0.104621360712787</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.705882352941177</v>
+        <v>0.878787878787879</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.835</v>
+        <v>7.98</v>
       </c>
       <c r="K7">
-        <v>-0.0224079754601227</v>
+        <v>-0.13302738476843</v>
       </c>
       <c r="L7">
-        <v>-0.0566279069767442</v>
+        <v>-0.349195006218244</v>
       </c>
       <c r="M7">
-        <v>0.0050648994905709</v>
+        <v>0.0339496900367833</v>
       </c>
       <c r="N7">
-        <v>-2.6835898754638</v>
+        <v>-1.66700983419086</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7">
         <v>1777675.54138</v>
@@ -1003,19 +1012,16 @@
         <v>5573253.04125</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
-      </c>
-      <c r="W7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1032,37 +1038,37 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>0.202721952208425</v>
+        <v>0.876673077589228</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.647058823529412</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.032</v>
+        <v>0.835</v>
       </c>
       <c r="K8">
-        <v>0.0009845013477087999</v>
+        <v>-0.0224079754601227</v>
       </c>
       <c r="L8">
-        <v>-0.0011031446437678</v>
+        <v>-0.0566279069767442</v>
       </c>
       <c r="M8">
-        <v>0.0024978507420257</v>
+        <v>0.0050648994905709</v>
       </c>
       <c r="N8">
-        <v>3.0765667115903</v>
+        <v>-2.6835898754638</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P8" t="s">
         <v>36</v>
@@ -1074,19 +1080,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="S8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1094,49 +1100,49 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>0.999958211442229</v>
+        <v>0.202721952208425</v>
       </c>
       <c r="G9">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.645833333333333</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>7.7</v>
+        <v>0.032</v>
       </c>
       <c r="K9">
-        <v>-1.82472691844362</v>
+        <v>0.0009845013477087999</v>
       </c>
       <c r="L9">
-        <v>-2.9012961569852</v>
+        <v>-0.0011031446437678</v>
       </c>
       <c r="M9">
-        <v>-1.13894578509611</v>
+        <v>0.0024978507420257</v>
       </c>
       <c r="N9">
-        <v>-23.6977521875795</v>
+        <v>3.0765667115903</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q9">
         <v>1777675.54138</v>
@@ -1145,19 +1151,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="S9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1174,40 +1180,40 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>0.130045396819315</v>
+        <v>0.999958211442229</v>
       </c>
       <c r="G10">
-        <v>0.133333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H10">
-        <v>0.355555555555556</v>
+        <v>0.645833333333333</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>12</v>
+        <v>7.7</v>
       </c>
       <c r="K10">
-        <v>0.324966383586285</v>
+        <v>-1.82472691844362</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-2.9012961569852</v>
       </c>
       <c r="M10">
-        <v>1.71480768795139</v>
+        <v>-1.13894578509611</v>
       </c>
       <c r="N10">
-        <v>2.70805319655238</v>
+        <v>-23.6977521875795</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q10">
         <v>1777675.54138</v>
@@ -1216,19 +1222,19 @@
         <v>5573253.04125</v>
       </c>
       <c r="S10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1236,7 +1242,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1245,40 +1251,40 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>0.999471660362405</v>
+        <v>0.130045396819315</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="H11">
-        <v>0.666666666666667</v>
+        <v>0.355555555555556</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0.87</v>
+        <v>12</v>
       </c>
       <c r="K11">
-        <v>-0.0298335736574449</v>
+        <v>0.324966383586285</v>
       </c>
       <c r="L11">
-        <v>-0.0477121900384304</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.0128234123197242</v>
+        <v>1.71480768795139</v>
       </c>
       <c r="N11">
-        <v>-3.42914639740746</v>
+        <v>2.70805319655238</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q11">
         <v>1777675.54138</v>
@@ -1287,16 +1293,16 @@
         <v>5573253.04125</v>
       </c>
       <c r="S11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W11" t="s">
         <v>48</v>
@@ -1316,40 +1322,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>0.943418770523598</v>
+        <v>0.999471660362405</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.645833333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.033</v>
+        <v>0.87</v>
       </c>
       <c r="K12">
-        <v>-0.0009886317680060999</v>
+        <v>-0.0298335736574449</v>
       </c>
       <c r="L12">
-        <v>-0.0022922980427793</v>
+        <v>-0.0477121900384304</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-0.0128234123197242</v>
       </c>
       <c r="N12">
-        <v>-2.99585384244301</v>
+        <v>-3.42914639740746</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q12">
         <v>1777675.54138</v>
@@ -1358,19 +1364,90 @@
         <v>5573253.04125</v>
       </c>
       <c r="S12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>0.943418770523598</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.033</v>
+      </c>
+      <c r="K13">
+        <v>-0.0009886317680060999</v>
+      </c>
+      <c r="L13">
+        <v>-0.0022922980427793</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>-2.99585384244301</v>
+      </c>
+      <c r="O13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" t="s">
         <v>41</v>
       </c>
-      <c r="T12" t="s">
+      <c r="Q13">
+        <v>1777675.54138</v>
+      </c>
+      <c r="R13">
+        <v>5573253.04125</v>
+      </c>
+      <c r="S13" t="s">
         <v>42</v>
       </c>
-      <c r="U12" t="s">
+      <c r="T13" t="s">
         <v>43</v>
       </c>
-      <c r="V12" t="s">
+      <c r="U13" t="s">
         <v>44</v>
       </c>
-      <c r="W12" t="s">
-        <v>48</v>
+      <c r="V13" t="s">
+        <v>45</v>
+      </c>
+      <c r="W13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
